--- a/BestNetworks/LessThan200.xlsx
+++ b/BestNetworks/LessThan200.xlsx
@@ -445,7 +445,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -491,7 +491,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -775,7 +775,7 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C13"/>
+      <selection activeCell="B5" sqref="B5:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,235 +815,235 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
         <v>74</v>
       </c>
     </row>
